--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3371,7 +3372,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -3387,6 +3387,930 @@
       </c>
       <c r="H41" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4295,22 +4296,945 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6249</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5219,7 +5220,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -5235,6 +5235,106 @@
       </c>
       <c r="H24" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.96</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5248,7 +5249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5259,17 +5260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5279,14 +5300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.04</v>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5295,14 +5338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.83</v>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5311,14 +5376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.82</v>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5327,13 +5414,1246 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6755</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6665</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010455</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010456</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6552,7 +6553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6563,17 +6564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6583,14 +6604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.09</v>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6599,14 +6642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.04</v>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6615,14 +6680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.83</v>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6631,14 +6718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.82</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6647,13 +6756,1490 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8122,7 +8123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8133,17 +8134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8153,14 +8174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.88</v>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -8169,14 +8212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.09</v>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8185,14 +8250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.04</v>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3195</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -8201,14 +8288,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.83</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8217,14 +8326,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.82</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8233,13 +8364,1245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>14.25</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>15.88</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>13.09</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>13.04</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>12.83</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>21.82</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.96</v>
       </c>
     </row>
@@ -600,6 +617,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1945,7 +3346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3514,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4810,929 +6211,6 @@
       </c>
       <c r="H34" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时主题行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3990</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时价值增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9897</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050201</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时价值增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7842</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7608</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001236</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6646</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6249</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4574</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2892</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010328</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时荣华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2639</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1558</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>45.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011340</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时战略新材料主题混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.62</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011341</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时战略新材料主题混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002556</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>45.42</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010329</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时荣华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>75.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5807,22 +6285,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.64</t>
+          <t>83.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9101</t>
+          <t>5.3990</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5845,26 +6323,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.13</t>
+          <t>27.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>81.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5216</t>
+          <t>1.8914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5883,26 +6361,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7939</t>
+          <t>0.9897</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5911,36 +6389,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001236</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时丝路主题股票A</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>83.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6510</t>
+          <t>0.7842</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5949,36 +6427,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6247</t>
+          <t>0.7608</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5987,36 +6465,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6178</t>
+          <t>0.6646</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -6025,36 +6503,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6105</t>
+          <t>0.6249</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -6073,26 +6551,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4656</t>
+          <t>0.4574</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -6101,36 +6579,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011585</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时产业慧选混合A</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.12</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>83.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3738</t>
+          <t>0.2892</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -6139,36 +6617,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>010328</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>博时荣华灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.52</t>
+          <t>75.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2939</t>
+          <t>0.2639</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -6177,36 +6655,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002142</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时外延增长主题灵活配置混合</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.61</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1589</t>
+          <t>0.1601</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -6215,36 +6693,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011340</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时战略新材料主题混合A</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.33</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1532</t>
+          <t>0.1558</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -6263,22 +6741,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>45.42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1483</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -6291,36 +6769,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>011340</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>博时战略新材料主题混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1417</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -6339,22 +6817,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>82.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.0975</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -6377,22 +6855,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.99</t>
+          <t>83.62</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -6415,26 +6893,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.33</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0593</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -6443,36 +6921,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011586</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时产业慧选混合C</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -6481,32 +6959,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002556</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时丝路主题股票C</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -6519,36 +6997,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>003435</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>博时鑫泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>45.42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -6567,26 +7045,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>67.52</t>
+          <t>83.94</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -6595,36 +7073,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003435</t>
+          <t>010329</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时鑫泽灵活配置混合C</t>
+          <t>博时荣华灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>75.55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -6643,19 +7121,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6664,6 +7142,929 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8232,7 +9633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
+++ b/数据整理/stocks/A股/深证主板/000708-中信特钢.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>10.56</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>14.25</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>15.88</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>13.09</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>13.04</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>12.83</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>21.82</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>35</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.96</v>
       </c>
     </row>
@@ -616,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,7 +660,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,27 +695,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时主题行业混合（LOF）</t>
+          <t>博时主题行业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>67.91</t>
+          <t>100.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.96</t>
+          <t>85.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3140</t>
+          <t>7.4064</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,36 +728,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100026</t>
+          <t>050001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国天合稳健混合</t>
+          <t>博时价值增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.01</t>
+          <t>34.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>90.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9357</t>
+          <t>1.5596</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002593</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国美丽中国混合A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.84</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4247</t>
+          <t>0.9858</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +804,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>004505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>博时新兴消费主题混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>15.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6873</t>
+          <t>0.8447</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +842,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>001158</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>工银瑞信新材料新能源行业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>21.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5233</t>
+          <t>0.8280</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +880,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012578</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国红利混合A</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4183</t>
+          <t>0.7175</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +918,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）A</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3982</t>
+          <t>0.6216</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +956,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007016</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国睿泽回报混合</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>67.94</t>
+          <t>71.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2327</t>
+          <t>0.3765</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +994,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519651</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河转型增长主题灵活配置混合</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>73.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.3410</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1032,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012810</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）C</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>68.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1823</t>
+          <t>0.3263</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1070,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010328</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合A</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.56</t>
+          <t>73.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1728</t>
+          <t>0.3237</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1108,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>009967</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>博时荣泰灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>61.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1389</t>
+          <t>0.1978</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1146,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>004434</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数A</t>
+          <t>博时逆向投资混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.1936</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1184,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012579</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国红利混合C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1100</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1222,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519664</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银河美丽优萃混合A</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1052</t>
+          <t>0.1742</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1253,26 +1270,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>58.88</t>
+          <t>59.42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0925</t>
+          <t>0.1563</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +1298,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>014031</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方发展机遇一年持有混合A</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>77.64</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0912</t>
+          <t>0.0940</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +1336,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011142</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信新材料新能源股票A</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>82.42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0824</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +1374,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011143</t>
+          <t>002331</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>创金合信新材料新能源股票C</t>
+          <t>泰康安泰回报混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.16</t>
+          <t>29.64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0807</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +1412,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009967</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时荣泰灵活配置混合</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75.50</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.0765</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +1450,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011566</t>
+          <t>001798</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国美丽中国混合C</t>
+          <t>泰康新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +1488,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>160519</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>博时睿利事件驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>83.06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0327</t>
+          <t>0.0679</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +1526,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>519665</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>银河美丽优萃混合C</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +1564,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>014032</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>南方发展机遇一年持有混合C</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>83.48</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0299</t>
+          <t>0.0395</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1585,36 +1602,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>160519</t>
+          <t>002595</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
+          <t>博时工业4.0主题股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1623,36 +1640,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011686</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>创金合信先进装备股票C</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.17</t>
+          <t>71.92</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0235</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1661,36 +1678,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>006202</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>交银施罗德核心资产混合</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>71.23</t>
+          <t>68.55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1699,36 +1716,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003435</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>博时鑫泽灵活配置混合C</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>58.88</t>
+          <t>98.94</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1737,36 +1754,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011685</t>
+          <t>004435</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>创金合信先进装备股票A</t>
+          <t>博时逆向投资混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>80.17</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1775,36 +1792,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010329</t>
+          <t>005878</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合C</t>
+          <t>博时产业新动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>77.56</t>
+          <t>73.99</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1813,36 +1830,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>004112</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>创金合信国企活力混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1851,36 +1868,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>013590</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南方比较优势混合A</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>66.06</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1889,36 +1906,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>013591</t>
+          <t>001799</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南方比较优势混合C</t>
+          <t>泰康新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>66.06</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1927,12 +1944,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>013803</t>
+          <t>003435</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数C</t>
+          <t>博时鑫泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1942,21 +1959,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>59.42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1965,34 +1982,1261 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>016815</t>
+          <t>007234</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014382</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2001,6 +3245,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6873</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011566</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3346,7 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4915,7 +7543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6211,929 +8839,6 @@
       </c>
       <c r="H34" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时主题行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3990</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时价值增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8914</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9897</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050201</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时价值增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7842</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7608</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001236</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6646</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6249</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4574</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2892</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010328</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时荣华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2639</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1558</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>45.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011340</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时战略新材料主题混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.62</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011341</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时战略新材料主题混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002556</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>45.42</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010329</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时荣华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>75.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7208,22 +8913,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.64</t>
+          <t>83.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9101</t>
+          <t>5.3990</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -7246,26 +8951,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.13</t>
+          <t>27.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>81.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5216</t>
+          <t>1.8914</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7284,26 +8989,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7939</t>
+          <t>0.9897</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7312,36 +9017,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001236</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时丝路主题股票A</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.64</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>83.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6510</t>
+          <t>0.7842</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7350,36 +9055,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6247</t>
+          <t>0.7608</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -7388,36 +9093,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>12.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6178</t>
+          <t>0.6646</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -7426,36 +9131,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6105</t>
+          <t>0.6249</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -7474,26 +9179,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4656</t>
+          <t>0.4574</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -7502,36 +9207,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011585</t>
+          <t>000936</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时产业慧选混合A</t>
+          <t>博时产业新动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.12</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>83.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3738</t>
+          <t>0.2892</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -7540,36 +9245,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000936</t>
+          <t>010328</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时产业新动力灵活配置混合A</t>
+          <t>博时荣华灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67.52</t>
+          <t>75.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2939</t>
+          <t>0.2639</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -7578,36 +9283,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002142</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时外延增长主题灵活配置混合</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.61</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1589</t>
+          <t>0.1601</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -7616,36 +9321,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011340</t>
+          <t>002142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时战略新材料主题混合A</t>
+          <t>博时外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75.33</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1532</t>
+          <t>0.1558</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -7664,22 +9369,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>45.42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1483</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -7692,36 +9397,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>011340</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>博时战略新材料主题混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1417</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -7740,22 +9445,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>82.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1126</t>
+          <t>0.0975</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -7778,22 +9483,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.99</t>
+          <t>83.62</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -7816,26 +9521,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75.33</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0593</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -7844,36 +9549,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011586</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时产业慧选混合C</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>42.36</t>
+          <t>86.02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -7882,32 +9587,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002556</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时丝路主题股票C</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -7920,36 +9625,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>003435</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>博时鑫泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>80.45</t>
+          <t>45.42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -7968,26 +9673,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>67.52</t>
+          <t>83.94</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -7996,36 +9701,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003435</t>
+          <t>010329</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>博时鑫泽灵活配置混合C</t>
+          <t>博时荣华灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>75.55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -8044,19 +9749,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8065,6 +9770,929 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时产业慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9631,1383 +12259,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时主题行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.4064</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时价值增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5596</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9858</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004505</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时新兴消费主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8447</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001158</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信新材料新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8280</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>050201</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时价值增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7175</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001236</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6216</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3765</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000936</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3410</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3263</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>73.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3237</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>61.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1978</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004434</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1936</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1803</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1742</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1563</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0940</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0826</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002331</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康安泰回报混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0807</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0765</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001798</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泰康新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002556</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博时工业4.0主题股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>71.92</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004435</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>博时逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005878</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时产业新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>73.99</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004112</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信国企活力混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001799</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>泰康新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>